--- a/ChartsGenerator/sample/sampletemplate.xlsx
+++ b/ChartsGenerator/sample/sampletemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ntelicor-Admin\Documents\msproject\ChartsGenerator\ChartsGenerator\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Athiban\ChartsGenerator\ChartsGenerator\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -772,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ChartsGenerator/sample/sampletemplate.xlsx
+++ b/ChartsGenerator/sample/sampletemplate.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ntelicor-Admin\Documents\msproject\ChartsGenerator\ChartsGenerator\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ntelicor-Admin\Documents\chart testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="52">
   <si>
     <t>777-200</t>
   </si>
@@ -64,18 +64,6 @@
     <t>Vendor</t>
   </si>
   <si>
-    <t>EOI Demo 1</t>
-  </si>
-  <si>
-    <t>EOI Demo 2</t>
-  </si>
-  <si>
-    <t>EOI Demo 3</t>
-  </si>
-  <si>
-    <t>EOI Demo 4</t>
-  </si>
-  <si>
     <t>Cust Dry Run (IFE)</t>
   </si>
   <si>
@@ -88,12 +76,6 @@
     <t>FSAT/CATP (IFC)</t>
   </si>
   <si>
-    <t>FSAT/CATP 2 (IFE)</t>
-  </si>
-  <si>
-    <t>FSAT/CATP 2 (IFC)</t>
-  </si>
-  <si>
     <t>SW ODD Baseline</t>
   </si>
   <si>
@@ -112,15 +94,6 @@
     <t>Prototype Eval Period</t>
   </si>
   <si>
-    <t>Workshop # 1</t>
-  </si>
-  <si>
-    <t>Workshop # 2</t>
-  </si>
-  <si>
-    <t>Workshop # N</t>
-  </si>
-  <si>
     <t>RFP through Contract Award</t>
   </si>
   <si>
@@ -148,9 +121,6 @@
     <t>#FF0000</t>
   </si>
   <si>
-    <t>#C00000</t>
-  </si>
-  <si>
     <t>#CCC0DA</t>
   </si>
   <si>
@@ -200,6 +170,12 @@
   </si>
   <si>
     <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>Workshops</t>
+  </si>
+  <si>
+    <t>EOI Demos</t>
   </si>
 </sst>
 </file>
@@ -251,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,12 +309,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -517,35 +487,29 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="24" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -853,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I139"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F19" sqref="F19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,28 +865,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="42">
+      <c r="B2" s="38"/>
+      <c r="C2" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="40">
         <f>G2-F2</f>
         <v>5</v>
       </c>
-      <c r="F2" s="43">
+      <c r="F2" s="41">
         <v>42364</v>
       </c>
-      <c r="G2" s="44">
+      <c r="G2" s="42">
         <v>42369</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="I2" s="46" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="44" t="s">
         <v>1</v>
       </c>
     </row>
@@ -931,20 +895,20 @@
         <v>0</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="28" t="s">
-        <v>55</v>
+      <c r="C3" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="50">
+        <v>25</v>
+      </c>
+      <c r="E3" s="48">
         <f>(G3-F3)+1</f>
         <v>5</v>
       </c>
-      <c r="F3" s="30">
+      <c r="F3" s="29">
         <v>42373</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="30">
         <v>42377</v>
       </c>
       <c r="H3" s="1"/>
@@ -957,14 +921,14 @@
         <v>0</v>
       </c>
       <c r="B4" s="6"/>
-      <c r="C4" s="28" t="s">
-        <v>55</v>
+      <c r="C4" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="50">
-        <f t="shared" ref="E4:E67" si="0">(G4-F4)+1</f>
+        <v>50</v>
+      </c>
+      <c r="E4" s="48">
+        <f t="shared" ref="E4:E61" si="0">(G4-F4)+1</f>
         <v>5</v>
       </c>
       <c r="F4" s="3">
@@ -983,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="28" t="s">
-        <v>55</v>
+      <c r="C5" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="50">
+        <v>50</v>
+      </c>
+      <c r="E5" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1009,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="B6" s="6"/>
-      <c r="C6" s="28" t="s">
-        <v>55</v>
+      <c r="C6" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="50">
+        <v>50</v>
+      </c>
+      <c r="E6" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1035,13 +999,13 @@
         <v>0</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="28" t="s">
-        <v>55</v>
+      <c r="C7" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="50">
+        <v>41</v>
+      </c>
+      <c r="E7" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1061,22 +1025,18 @@
         <v>0</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="C8" s="28" t="s">
-        <v>55</v>
+      <c r="C8" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F8" s="3">
-        <v>42415</v>
-      </c>
-      <c r="G8" s="3">
-        <v>42419</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E8" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="5" t="s">
         <v>1</v>
@@ -1087,22 +1047,18 @@
         <v>0</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="28" t="s">
-        <v>55</v>
+      <c r="C9" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <v>42422</v>
-      </c>
-      <c r="G9" s="3">
-        <v>42426</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E9" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="5" t="s">
         <v>1</v>
@@ -1113,22 +1069,18 @@
         <v>0</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="28" t="s">
-        <v>55</v>
+      <c r="C10" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F10" s="3">
-        <v>42436</v>
-      </c>
-      <c r="G10" s="3">
-        <v>42440</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E10" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="5" t="s">
         <v>1</v>
@@ -1139,22 +1091,18 @@
         <v>0</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="28" t="s">
-        <v>55</v>
+      <c r="C11" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F11" s="3">
-        <v>42443</v>
-      </c>
-      <c r="G11" s="3">
-        <v>42447</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E11" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="5" t="s">
         <v>1</v>
@@ -1165,22 +1113,18 @@
         <v>0</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="C12" s="28" t="s">
-        <v>55</v>
+      <c r="C12" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F12" s="3">
-        <v>42450</v>
-      </c>
-      <c r="G12" s="3">
-        <v>42454</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="E12" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="5" t="s">
         <v>1</v>
@@ -1191,22 +1135,18 @@
         <v>0</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="28" t="s">
-        <v>55</v>
+      <c r="C13" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F13" s="3">
-        <v>42464</v>
-      </c>
-      <c r="G13" s="3">
-        <v>42468</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E13" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="1"/>
       <c r="I13" s="5" t="s">
         <v>1</v>
@@ -1217,22 +1157,18 @@
         <v>0</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="28" t="s">
-        <v>55</v>
+      <c r="C14" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F14" s="3">
-        <v>42471</v>
-      </c>
-      <c r="G14" s="3">
-        <v>42475</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E14" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="5" t="s">
         <v>1</v>
@@ -1243,22 +1179,18 @@
         <v>0</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="28" t="s">
-        <v>55</v>
+      <c r="C15" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F15" s="3">
-        <v>42478</v>
-      </c>
-      <c r="G15" s="3">
-        <v>42482</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="E15" s="48">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="5" t="s">
         <v>1</v>
@@ -1269,21 +1201,21 @@
         <v>0</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="28" t="s">
-        <v>55</v>
+      <c r="C16" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="50">
+        <v>18</v>
+      </c>
+      <c r="E16" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F16" s="3">
-        <v>42485</v>
+        <v>42506</v>
       </c>
       <c r="G16" s="3">
-        <v>42489</v>
+        <v>42510</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="5" t="s">
@@ -1295,21 +1227,21 @@
         <v>0</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="28" t="s">
-        <v>55</v>
+      <c r="C17" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="50">
+        <v>19</v>
+      </c>
+      <c r="E17" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F17" s="3">
-        <v>42499</v>
+        <v>42513</v>
       </c>
       <c r="G17" s="3">
-        <v>42503</v>
+        <v>42517</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="5" t="s">
@@ -1321,21 +1253,21 @@
         <v>0</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="28" t="s">
-        <v>55</v>
+      <c r="C18" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="50">
+        <v>20</v>
+      </c>
+      <c r="E18" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F18" s="3">
-        <v>42506</v>
+        <v>42527</v>
       </c>
       <c r="G18" s="3">
-        <v>42510</v>
+        <v>42531</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="5" t="s">
@@ -1347,21 +1279,21 @@
         <v>0</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="28" t="s">
-        <v>55</v>
+      <c r="C19" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F19" s="3">
-        <v>42513</v>
-      </c>
-      <c r="G19" s="3">
-        <v>42517</v>
+        <v>21</v>
+      </c>
+      <c r="E19" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F19" s="29">
+        <v>42373</v>
+      </c>
+      <c r="G19" s="30">
+        <v>42377</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="5" t="s">
@@ -1373,23 +1305,23 @@
         <v>0</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="28" t="s">
-        <v>55</v>
+      <c r="C20" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="3">
-        <v>42527</v>
-      </c>
-      <c r="G20" s="3">
-        <v>42531</v>
-      </c>
-      <c r="H20" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E20" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F20" s="29">
+        <v>42541</v>
+      </c>
+      <c r="G20" s="30">
+        <v>42545</v>
+      </c>
+      <c r="H20" s="7"/>
       <c r="I20" s="5" t="s">
         <v>1</v>
       </c>
@@ -1399,128 +1331,128 @@
         <v>0</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="28" t="s">
-        <v>55</v>
+      <c r="C21" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F21" s="3">
-        <v>42534</v>
-      </c>
-      <c r="G21" s="3">
-        <v>42538</v>
-      </c>
-      <c r="H21" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E21" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F21" s="29">
+        <v>42555</v>
+      </c>
+      <c r="G21" s="30">
+        <v>42559</v>
+      </c>
+      <c r="H21" s="7"/>
       <c r="I21" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F22" s="30">
-        <v>42541</v>
-      </c>
-      <c r="G22" s="31">
-        <v>42545</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" s="40">
+        <f>(G22-F22)</f>
+        <v>2</v>
+      </c>
+      <c r="F22" s="41">
+        <v>42736</v>
+      </c>
+      <c r="G22" s="42">
+        <v>42738</v>
+      </c>
+      <c r="H22" s="43"/>
+      <c r="I22" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F23" s="30">
-        <v>42555</v>
-      </c>
-      <c r="G23" s="31">
-        <v>42559</v>
-      </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="40">
+        <f>(G23-F23)</f>
+        <v>5</v>
+      </c>
+      <c r="F23" s="41">
+        <v>42364</v>
+      </c>
+      <c r="G23" s="42">
+        <v>42369</v>
+      </c>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="42">
-        <f>(G24-F24)</f>
-        <v>2</v>
-      </c>
-      <c r="F24" s="43">
-        <v>42736</v>
-      </c>
-      <c r="G24" s="44">
-        <v>42738</v>
-      </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F24" s="33">
+        <v>42401</v>
+      </c>
+      <c r="G24" s="34">
+        <v>42405</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="42">
-        <f>(G25-F25)</f>
-        <v>5</v>
-      </c>
-      <c r="F25" s="43">
-        <v>42364</v>
-      </c>
-      <c r="G25" s="44">
-        <v>42369</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46" t="s">
+      <c r="B25" s="6"/>
+      <c r="C25" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F25" s="35">
+        <v>42408</v>
+      </c>
+      <c r="G25" s="35">
+        <v>42412</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1529,47 +1461,47 @@
         <v>0</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F26" s="34">
-        <v>42401</v>
+      <c r="C26" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="35">
+        <v>42415</v>
       </c>
       <c r="G26" s="35">
-        <v>42405</v>
+        <v>42419</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="28" t="s">
-        <v>52</v>
+      <c r="C27" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E27" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F27" s="36">
-        <v>42408</v>
-      </c>
-      <c r="G27" s="36">
-        <v>42412</v>
+        <v>50</v>
+      </c>
+      <c r="E27" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F27" s="35">
+        <v>42422</v>
+      </c>
+      <c r="G27" s="35">
+        <v>42426</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="5" t="s">
@@ -1581,21 +1513,21 @@
         <v>0</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="28" t="s">
-        <v>52</v>
+      <c r="C28" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F28" s="36">
-        <v>42415</v>
-      </c>
-      <c r="G28" s="36">
-        <v>42419</v>
+        <v>41</v>
+      </c>
+      <c r="E28" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F28" s="32">
+        <v>42436</v>
+      </c>
+      <c r="G28" s="32">
+        <v>42440</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="5" t="s">
@@ -1607,21 +1539,21 @@
         <v>0</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="28" t="s">
-        <v>52</v>
+      <c r="C29" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E29" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F29" s="36">
-        <v>42422</v>
-      </c>
-      <c r="G29" s="36">
-        <v>42426</v>
+        <v>51</v>
+      </c>
+      <c r="E29" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="32">
+        <v>42443</v>
+      </c>
+      <c r="G29" s="32">
+        <v>42447</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="5" t="s">
@@ -1633,21 +1565,21 @@
         <v>0</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="28" t="s">
-        <v>52</v>
+      <c r="C30" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F30" s="33">
-        <v>42436</v>
-      </c>
-      <c r="G30" s="33">
-        <v>42440</v>
+      <c r="E30" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F30" s="32">
+        <v>42450</v>
+      </c>
+      <c r="G30" s="32">
+        <v>42454</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="5" t="s">
@@ -1659,21 +1591,21 @@
         <v>0</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="28" t="s">
-        <v>52</v>
+      <c r="C31" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F31" s="33">
-        <v>42443</v>
-      </c>
-      <c r="G31" s="33">
-        <v>42447</v>
+        <v>51</v>
+      </c>
+      <c r="E31" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F31" s="31">
+        <v>42464</v>
+      </c>
+      <c r="G31" s="31">
+        <v>42468</v>
       </c>
       <c r="H31" s="1"/>
       <c r="I31" s="5" t="s">
@@ -1685,21 +1617,21 @@
         <v>0</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="28" t="s">
-        <v>52</v>
+      <c r="C32" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F32" s="33">
-        <v>42450</v>
-      </c>
-      <c r="G32" s="33">
-        <v>42454</v>
+        <v>51</v>
+      </c>
+      <c r="E32" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F32" s="31">
+        <v>42471</v>
+      </c>
+      <c r="G32" s="31">
+        <v>42475</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="5" t="s">
@@ -1711,21 +1643,21 @@
         <v>0</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="28" t="s">
-        <v>52</v>
+      <c r="C33" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F33" s="32">
-        <v>42464</v>
-      </c>
-      <c r="G33" s="32">
-        <v>42468</v>
+        <v>14</v>
+      </c>
+      <c r="E33" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F33" s="31">
+        <v>42478</v>
+      </c>
+      <c r="G33" s="31">
+        <v>42482</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="5" t="s">
@@ -1737,21 +1669,21 @@
         <v>0</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="28" t="s">
-        <v>52</v>
+      <c r="C34" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F34" s="32">
-        <v>42471</v>
-      </c>
-      <c r="G34" s="32">
-        <v>42475</v>
+        <v>15</v>
+      </c>
+      <c r="E34" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F34" s="36">
+        <v>42492</v>
+      </c>
+      <c r="G34" s="36">
+        <v>42496</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="5" t="s">
@@ -1763,21 +1695,21 @@
         <v>0</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="28" t="s">
-        <v>52</v>
+      <c r="C35" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F35" s="32">
-        <v>42478</v>
-      </c>
-      <c r="G35" s="32">
-        <v>42482</v>
+        <v>16</v>
+      </c>
+      <c r="E35" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F35" s="36">
+        <v>42499</v>
+      </c>
+      <c r="G35" s="36">
+        <v>42503</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="5" t="s">
@@ -1789,21 +1721,21 @@
         <v>0</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="28" t="s">
-        <v>52</v>
+      <c r="C36" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F36" s="37">
-        <v>42492</v>
-      </c>
-      <c r="G36" s="37">
-        <v>42496</v>
+        <v>17</v>
+      </c>
+      <c r="E36" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F36" s="36">
+        <v>42506</v>
+      </c>
+      <c r="G36" s="36">
+        <v>42510</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="5" t="s">
@@ -1815,21 +1747,21 @@
         <v>0</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="28" t="s">
-        <v>52</v>
+      <c r="C37" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F37" s="37">
-        <v>42499</v>
-      </c>
-      <c r="G37" s="37">
-        <v>42503</v>
+        <v>18</v>
+      </c>
+      <c r="E37" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F37" s="3">
+        <v>42534</v>
+      </c>
+      <c r="G37" s="3">
+        <v>42538</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="5" t="s">
@@ -1841,21 +1773,21 @@
         <v>0</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="28" t="s">
-        <v>52</v>
+      <c r="C38" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F38" s="37">
-        <v>42506</v>
-      </c>
-      <c r="G38" s="37">
-        <v>42510</v>
+        <v>19</v>
+      </c>
+      <c r="E38" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F38" s="29">
+        <v>42541</v>
+      </c>
+      <c r="G38" s="30">
+        <v>42545</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="5" t="s">
@@ -1867,21 +1799,21 @@
         <v>0</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="28" t="s">
-        <v>52</v>
+      <c r="C39" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F39" s="37">
-        <v>42513</v>
-      </c>
-      <c r="G39" s="37">
-        <v>42517</v>
+        <v>20</v>
+      </c>
+      <c r="E39" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F39" s="29">
+        <v>42555</v>
+      </c>
+      <c r="G39" s="30">
+        <v>42559</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="5" t="s">
@@ -1893,21 +1825,21 @@
         <v>0</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="28" t="s">
-        <v>52</v>
+      <c r="C40" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F40" s="3">
-        <v>42527</v>
-      </c>
-      <c r="G40" s="3">
-        <v>42531</v>
+        <v>21</v>
+      </c>
+      <c r="E40" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F40" s="29">
+        <v>42562</v>
+      </c>
+      <c r="G40" s="30">
+        <v>42566</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="5" t="s">
@@ -1919,23 +1851,23 @@
         <v>0</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="28" t="s">
-        <v>52</v>
+      <c r="C41" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F41" s="3">
-        <v>42534</v>
-      </c>
-      <c r="G41" s="3">
-        <v>42538</v>
-      </c>
-      <c r="H41" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E41" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F41" s="29">
+        <v>42569</v>
+      </c>
+      <c r="G41" s="30">
+        <v>42573</v>
+      </c>
+      <c r="H41" s="7"/>
       <c r="I41" s="5" t="s">
         <v>1</v>
       </c>
@@ -1945,99 +1877,103 @@
         <v>0</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="28" t="s">
-        <v>52</v>
+      <c r="C42" s="27" t="s">
+        <v>42</v>
       </c>
       <c r="D42" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F42" s="29">
+        <v>42583</v>
+      </c>
+      <c r="G42" s="30">
+        <v>42587</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="48">
+        <f>(G43-F43)</f>
+        <v>2</v>
+      </c>
+      <c r="F43" s="41">
+        <v>42736</v>
+      </c>
+      <c r="G43" s="42">
+        <v>42738</v>
+      </c>
+      <c r="H43" s="43"/>
+      <c r="I43" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="48">
+        <f>(G44-F44)</f>
+        <v>5</v>
+      </c>
+      <c r="F44" s="41">
+        <v>42364</v>
+      </c>
+      <c r="G44" s="42">
+        <v>42369</v>
+      </c>
+      <c r="H44" s="43"/>
+      <c r="I44" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F42" s="30">
-        <v>42541</v>
-      </c>
-      <c r="G42" s="31">
-        <v>42545</v>
-      </c>
-      <c r="H42" s="1"/>
-      <c r="I42" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E43" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F43" s="30">
-        <v>42555</v>
-      </c>
-      <c r="G43" s="31">
-        <v>42559</v>
-      </c>
-      <c r="H43" s="1"/>
-      <c r="I43" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F44" s="30">
-        <v>42562</v>
-      </c>
-      <c r="G44" s="31">
-        <v>42566</v>
-      </c>
-      <c r="H44" s="1"/>
-      <c r="I44" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F45" s="30">
-        <v>42569</v>
-      </c>
-      <c r="G45" s="31">
-        <v>42573</v>
+      <c r="E45" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F45" s="29">
+        <v>42373</v>
+      </c>
+      <c r="G45" s="30">
+        <v>42377</v>
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="5" t="s">
@@ -2045,82 +1981,86 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="28" t="s">
-        <v>52</v>
+      <c r="A46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E46" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F46" s="30">
-        <v>42583</v>
-      </c>
-      <c r="G46" s="31">
-        <v>42587</v>
+        <v>50</v>
+      </c>
+      <c r="E46" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F46" s="3">
+        <v>42380</v>
+      </c>
+      <c r="G46" s="3">
+        <v>42384</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="40"/>
-      <c r="C47" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E47" s="50">
-        <f>(G47-F47)</f>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F47" s="43">
-        <v>42736</v>
-      </c>
-      <c r="G47" s="44">
-        <v>42738</v>
-      </c>
-      <c r="H47" s="45"/>
-      <c r="I47" s="46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40" t="s">
+      <c r="B47" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F47" s="3">
+        <v>42387</v>
+      </c>
+      <c r="G47" s="3">
+        <v>42391</v>
+      </c>
+      <c r="H47" s="7"/>
+      <c r="I47" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B48" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C48" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" s="50">
-        <f>(G48-F48)</f>
-        <v>5</v>
-      </c>
-      <c r="F48" s="43">
-        <v>42364</v>
-      </c>
-      <c r="G48" s="44">
-        <v>42369</v>
-      </c>
-      <c r="H48" s="45"/>
-      <c r="I48" s="46" t="s">
+      <c r="B48" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>42394</v>
+      </c>
+      <c r="G48" s="3">
+        <v>42398</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2129,23 +2069,23 @@
         <v>2</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F49" s="30">
-        <v>42373</v>
-      </c>
-      <c r="G49" s="31">
-        <v>42377</v>
+        <v>46</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F49" s="3">
+        <v>42409</v>
+      </c>
+      <c r="G49" s="3">
+        <v>42412</v>
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="5" t="s">
@@ -2157,23 +2097,23 @@
         <v>2</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E50" s="50">
+        <v>51</v>
+      </c>
+      <c r="E50" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F50" s="3">
-        <v>42380</v>
+        <v>42415</v>
       </c>
       <c r="G50" s="3">
-        <v>42384</v>
+        <v>42419</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="5" t="s">
@@ -2185,23 +2125,23 @@
         <v>2</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="50">
+        <v>51</v>
+      </c>
+      <c r="E51" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F51" s="3">
-        <v>42387</v>
+        <v>42422</v>
       </c>
       <c r="G51" s="3">
-        <v>42391</v>
+        <v>42426</v>
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="5" t="s">
@@ -2213,23 +2153,23 @@
         <v>2</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C52" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="50">
+        <v>51</v>
+      </c>
+      <c r="E52" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F52" s="3">
-        <v>42394</v>
+        <v>42436</v>
       </c>
       <c r="G52" s="3">
-        <v>42398</v>
+        <v>42440</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="5" t="s">
@@ -2241,23 +2181,23 @@
         <v>2</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C53" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="50">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="E53" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="F53" s="3">
-        <v>42409</v>
+        <v>42443</v>
       </c>
       <c r="G53" s="3">
-        <v>42412</v>
+        <v>42447</v>
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="5" t="s">
@@ -2269,23 +2209,23 @@
         <v>2</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D54" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="50">
+      <c r="E54" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F54" s="3">
-        <v>42415</v>
+        <v>42450</v>
       </c>
       <c r="G54" s="3">
-        <v>42419</v>
+        <v>42454</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="5" t="s">
@@ -2297,23 +2237,23 @@
         <v>2</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D55" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E55" s="50">
+      <c r="E55" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F55" s="3">
-        <v>42422</v>
+        <v>42464</v>
       </c>
       <c r="G55" s="3">
-        <v>42426</v>
+        <v>42468</v>
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="5" t="s">
@@ -2325,23 +2265,23 @@
         <v>2</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="50">
+      <c r="E56" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F56" s="3">
-        <v>42436</v>
+        <v>42471</v>
       </c>
       <c r="G56" s="3">
-        <v>42440</v>
+        <v>42475</v>
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="5" t="s">
@@ -2353,23 +2293,23 @@
         <v>2</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="50">
+      <c r="E57" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F57" s="3">
-        <v>42443</v>
+        <v>42478</v>
       </c>
       <c r="G57" s="3">
-        <v>42447</v>
+        <v>42482</v>
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="5" t="s">
@@ -2381,23 +2321,23 @@
         <v>2</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="50">
+      <c r="E58" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F58" s="3">
-        <v>42450</v>
+        <v>42506</v>
       </c>
       <c r="G58" s="3">
-        <v>42454</v>
+        <v>42510</v>
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="5" t="s">
@@ -2409,23 +2349,23 @@
         <v>2</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D59" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E59" s="50">
+      <c r="E59" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F59" s="3">
-        <v>42464</v>
+        <v>42513</v>
       </c>
       <c r="G59" s="3">
-        <v>42468</v>
+        <v>42517</v>
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="5" t="s">
@@ -2437,23 +2377,23 @@
         <v>2</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C60" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="50">
+      <c r="E60" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F60" s="3">
-        <v>42471</v>
+        <v>42527</v>
       </c>
       <c r="G60" s="3">
-        <v>42475</v>
+        <v>42531</v>
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="5" t="s">
@@ -2465,23 +2405,23 @@
         <v>2</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D61" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="F61" s="3">
-        <v>42478</v>
+        <v>42534</v>
       </c>
       <c r="G61" s="3">
-        <v>42482</v>
+        <v>42538</v>
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="5" t="s">
@@ -2493,23 +2433,23 @@
         <v>2</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F62" s="3">
-        <v>42485</v>
-      </c>
-      <c r="G62" s="3">
-        <v>42489</v>
+      <c r="E62" s="48">
+        <f t="shared" ref="E62:E120" si="1">(G62-F62)+1</f>
+        <v>5</v>
+      </c>
+      <c r="F62" s="29">
+        <v>42541</v>
+      </c>
+      <c r="G62" s="30">
+        <v>42545</v>
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="5" t="s">
@@ -2521,107 +2461,107 @@
         <v>2</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E63" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F63" s="3">
-        <v>42499</v>
-      </c>
-      <c r="G63" s="3">
-        <v>42503</v>
+      <c r="E63" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F63" s="29">
+        <v>42555</v>
+      </c>
+      <c r="G63" s="30">
+        <v>42559</v>
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+    <row r="64" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E64" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F64" s="3">
-        <v>42506</v>
-      </c>
-      <c r="G64" s="3">
-        <v>42510</v>
-      </c>
-      <c r="H64" s="7"/>
-      <c r="I64" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="B64" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D64" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E64" s="48">
+        <f>(G64-F64)</f>
         <v>2</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F65" s="3">
-        <v>42513</v>
-      </c>
-      <c r="G65" s="3">
-        <v>42517</v>
-      </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="5" t="s">
+      <c r="F64" s="41">
+        <v>42736</v>
+      </c>
+      <c r="G64" s="42">
+        <v>42738</v>
+      </c>
+      <c r="H64" s="43"/>
+      <c r="I64" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E65" s="48">
+        <f>(G65-F65)</f>
+        <v>5</v>
+      </c>
+      <c r="F65" s="41">
+        <v>42364</v>
+      </c>
+      <c r="G65" s="42">
+        <v>42369</v>
+      </c>
+      <c r="H65" s="43"/>
+      <c r="I65" s="44" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E66" s="50">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="F66" s="3">
-        <v>42527</v>
-      </c>
-      <c r="G66" s="3">
-        <v>42531</v>
+        <v>47</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F66" s="29">
+        <v>42373</v>
+      </c>
+      <c r="G66" s="30">
+        <v>42377</v>
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="5" t="s">
@@ -2630,26 +2570,26 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="50">
-        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E67" s="48">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F67" s="3">
-        <v>42534</v>
+        <v>42380</v>
       </c>
       <c r="G67" s="3">
-        <v>42538</v>
+        <v>42384</v>
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="5" t="s">
@@ -2658,26 +2598,26 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E68" s="50">
-        <f t="shared" ref="E68:E131" si="1">(G68-F68)+1</f>
-        <v>5</v>
-      </c>
-      <c r="F68" s="30">
-        <v>42541</v>
-      </c>
-      <c r="G68" s="31">
-        <v>42545</v>
+        <v>50</v>
+      </c>
+      <c r="E68" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F68" s="3">
+        <v>42387</v>
+      </c>
+      <c r="G68" s="3">
+        <v>42391</v>
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="5" t="s">
@@ -2686,85 +2626,85 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E69" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F69" s="30">
-        <v>42555</v>
-      </c>
-      <c r="G69" s="31">
-        <v>42559</v>
+        <v>50</v>
+      </c>
+      <c r="E69" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F69" s="3">
+        <v>42394</v>
+      </c>
+      <c r="G69" s="3">
+        <v>42398</v>
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B70" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D70" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E70" s="50">
-        <f>(G70-F70)</f>
-        <v>2</v>
-      </c>
-      <c r="F70" s="43">
-        <v>42736</v>
-      </c>
-      <c r="G70" s="44">
-        <v>42738</v>
-      </c>
-      <c r="H70" s="45"/>
-      <c r="I70" s="46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B71" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E71" s="50">
-        <f>(G71-F71)</f>
-        <v>5</v>
-      </c>
-      <c r="F71" s="43">
-        <v>42364</v>
-      </c>
-      <c r="G71" s="44">
-        <v>42369</v>
-      </c>
-      <c r="H71" s="45"/>
-      <c r="I71" s="46" t="s">
+      <c r="B70" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F70" s="3">
+        <v>42409</v>
+      </c>
+      <c r="G70" s="3">
+        <v>42412</v>
+      </c>
+      <c r="H70" s="7"/>
+      <c r="I70" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F71" s="3">
+        <v>42415</v>
+      </c>
+      <c r="G71" s="3">
+        <v>42419</v>
+      </c>
+      <c r="H71" s="7"/>
+      <c r="I71" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2773,23 +2713,23 @@
         <v>3</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E72" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F72" s="30">
-        <v>42373</v>
-      </c>
-      <c r="G72" s="31">
-        <v>42377</v>
+        <v>47</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E72" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F72" s="3">
+        <v>42422</v>
+      </c>
+      <c r="G72" s="3">
+        <v>42426</v>
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="5" t="s">
@@ -2801,23 +2741,23 @@
         <v>3</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E73" s="50">
+        <v>51</v>
+      </c>
+      <c r="E73" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F73" s="3">
-        <v>42380</v>
+        <v>42436</v>
       </c>
       <c r="G73" s="3">
-        <v>42384</v>
+        <v>42440</v>
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="5" t="s">
@@ -2829,23 +2769,23 @@
         <v>3</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="50">
+        <v>51</v>
+      </c>
+      <c r="E74" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F74" s="3">
-        <v>42387</v>
+        <v>42443</v>
       </c>
       <c r="G74" s="3">
-        <v>42391</v>
+        <v>42447</v>
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="5" t="s">
@@ -2857,23 +2797,23 @@
         <v>3</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E75" s="50">
+        <v>14</v>
+      </c>
+      <c r="E75" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F75" s="3">
-        <v>42394</v>
+        <v>42450</v>
       </c>
       <c r="G75" s="3">
-        <v>42398</v>
+        <v>42454</v>
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="5" t="s">
@@ -2885,23 +2825,23 @@
         <v>3</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E76" s="50">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>15</v>
+      </c>
+      <c r="E76" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F76" s="3">
-        <v>42409</v>
+        <v>42464</v>
       </c>
       <c r="G76" s="3">
-        <v>42412</v>
+        <v>42468</v>
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="5" t="s">
@@ -2913,23 +2853,23 @@
         <v>3</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="50">
+        <v>16</v>
+      </c>
+      <c r="E77" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F77" s="3">
-        <v>42415</v>
+        <v>42471</v>
       </c>
       <c r="G77" s="3">
-        <v>42419</v>
+        <v>42475</v>
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="5" t="s">
@@ -2941,23 +2881,23 @@
         <v>3</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" s="50">
+        <v>17</v>
+      </c>
+      <c r="E78" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F78" s="3">
-        <v>42422</v>
+        <v>42478</v>
       </c>
       <c r="G78" s="3">
-        <v>42426</v>
+        <v>42482</v>
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="5" t="s">
@@ -2969,23 +2909,23 @@
         <v>3</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E79" s="50">
+        <v>18</v>
+      </c>
+      <c r="E79" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F79" s="3">
-        <v>42436</v>
+        <v>42506</v>
       </c>
       <c r="G79" s="3">
-        <v>42440</v>
+        <v>42510</v>
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="5" t="s">
@@ -2997,23 +2937,23 @@
         <v>3</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E80" s="50">
+        <v>19</v>
+      </c>
+      <c r="E80" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F80" s="3">
-        <v>42443</v>
+        <v>42513</v>
       </c>
       <c r="G80" s="3">
-        <v>42447</v>
+        <v>42517</v>
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="5" t="s">
@@ -3025,23 +2965,23 @@
         <v>3</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E81" s="50">
+        <v>20</v>
+      </c>
+      <c r="E81" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F81" s="3">
-        <v>42450</v>
+        <v>42527</v>
       </c>
       <c r="G81" s="3">
-        <v>42454</v>
+        <v>42531</v>
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="5" t="s">
@@ -3053,23 +2993,23 @@
         <v>3</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" s="50">
+        <v>21</v>
+      </c>
+      <c r="E82" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F82" s="3">
-        <v>42464</v>
+        <v>42534</v>
       </c>
       <c r="G82" s="3">
-        <v>42468</v>
+        <v>42538</v>
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="5" t="s">
@@ -3081,23 +3021,23 @@
         <v>3</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E83" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F83" s="3">
-        <v>42471</v>
-      </c>
-      <c r="G83" s="3">
-        <v>42475</v>
+        <v>22</v>
+      </c>
+      <c r="E83" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F83" s="29">
+        <v>42541</v>
+      </c>
+      <c r="G83" s="30">
+        <v>42545</v>
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="5" t="s">
@@ -3109,331 +3049,331 @@
         <v>3</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="28" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E84" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F84" s="3">
-        <v>42478</v>
-      </c>
-      <c r="G84" s="3">
-        <v>42482</v>
+        <v>23</v>
+      </c>
+      <c r="E84" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F84" s="29">
+        <v>42555</v>
+      </c>
+      <c r="G84" s="30">
+        <v>42559</v>
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+    <row r="85" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E85" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F85" s="3">
-        <v>42485</v>
-      </c>
-      <c r="G85" s="3">
-        <v>42489</v>
-      </c>
-      <c r="H85" s="7"/>
-      <c r="I85" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E86" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F86" s="3">
-        <v>42499</v>
-      </c>
-      <c r="G86" s="3">
-        <v>42503</v>
-      </c>
-      <c r="H86" s="7"/>
-      <c r="I86" s="5" t="s">
-        <v>1</v>
+      <c r="B85" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D85" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E85" s="48">
+        <f>(G85-F85)</f>
+        <v>2</v>
+      </c>
+      <c r="F85" s="41">
+        <v>42736</v>
+      </c>
+      <c r="G85" s="42">
+        <v>42738</v>
+      </c>
+      <c r="H85" s="43"/>
+      <c r="I85" s="44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E86" s="48">
+        <f>(G86-F86)</f>
+        <v>5</v>
+      </c>
+      <c r="F86" s="41">
+        <v>42364</v>
+      </c>
+      <c r="G86" s="42">
+        <v>42369</v>
+      </c>
+      <c r="H86" s="43"/>
+      <c r="I86" s="46" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F87" s="3">
-        <v>42506</v>
-      </c>
-      <c r="G87" s="3">
-        <v>42510</v>
+      <c r="A87" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E87" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F87" s="29">
+        <v>42373</v>
+      </c>
+      <c r="G87" s="30">
+        <v>42377</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="5" t="s">
-        <v>1</v>
+      <c r="I87" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="28" t="s">
-        <v>55</v>
+      <c r="A88" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E88" s="50">
+        <v>50</v>
+      </c>
+      <c r="E88" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F88" s="3">
-        <v>42513</v>
+        <v>42380</v>
       </c>
       <c r="G88" s="3">
-        <v>42517</v>
+        <v>42384</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="5" t="s">
-        <v>1</v>
+      <c r="I88" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="28" t="s">
-        <v>55</v>
+      <c r="A89" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" s="50">
+        <v>50</v>
+      </c>
+      <c r="E89" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F89" s="3">
-        <v>42527</v>
+        <v>42387</v>
       </c>
       <c r="G89" s="3">
-        <v>42531</v>
+        <v>42391</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="5" t="s">
-        <v>1</v>
+      <c r="I89" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="28" t="s">
-        <v>55</v>
+      <c r="A90" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="50">
+        <v>50</v>
+      </c>
+      <c r="E90" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F90" s="3">
-        <v>42534</v>
+        <v>42394</v>
       </c>
       <c r="G90" s="3">
-        <v>42538</v>
+        <v>42398</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="5" t="s">
-        <v>1</v>
+      <c r="I90" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="28" t="s">
-        <v>55</v>
+      <c r="A91" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E91" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F91" s="30">
-        <v>42541</v>
-      </c>
-      <c r="G91" s="31">
-        <v>42545</v>
+        <v>41</v>
+      </c>
+      <c r="E91" s="48">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
+        <v>42409</v>
+      </c>
+      <c r="G91" s="3">
+        <v>42412</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="5" t="s">
-        <v>1</v>
+      <c r="I91" s="10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="28" t="s">
-        <v>55</v>
+      <c r="A92" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E92" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F92" s="30">
-        <v>42555</v>
-      </c>
-      <c r="G92" s="31">
-        <v>42559</v>
+        <v>51</v>
+      </c>
+      <c r="E92" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F92" s="3">
+        <v>42415</v>
+      </c>
+      <c r="G92" s="3">
+        <v>42419</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40" t="s">
-        <v>3</v>
-      </c>
-      <c r="B93" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C93" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D93" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E93" s="50">
-        <f>(G93-F93)</f>
-        <v>2</v>
-      </c>
-      <c r="F93" s="43">
-        <v>42736</v>
-      </c>
-      <c r="G93" s="44">
-        <v>42738</v>
-      </c>
-      <c r="H93" s="45"/>
-      <c r="I93" s="46" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B94" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D94" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E94" s="50">
-        <f>(G94-F94)</f>
-        <v>5</v>
-      </c>
-      <c r="F94" s="43">
-        <v>42364</v>
-      </c>
-      <c r="G94" s="44">
-        <v>42369</v>
-      </c>
-      <c r="H94" s="45"/>
-      <c r="I94" s="48" t="s">
+      <c r="I92" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E93" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F93" s="3">
+        <v>42422</v>
+      </c>
+      <c r="G93" s="3">
+        <v>42426</v>
+      </c>
+      <c r="H93" s="7"/>
+      <c r="I93" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E94" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F94" s="3">
+        <v>42436</v>
+      </c>
+      <c r="G94" s="3">
+        <v>42440</v>
+      </c>
+      <c r="H94" s="7"/>
+      <c r="I94" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D95" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E95" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F95" s="30">
-        <v>42373</v>
-      </c>
-      <c r="G95" s="31">
-        <v>42377</v>
+        <v>48</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E95" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F95" s="3">
+        <v>42443</v>
+      </c>
+      <c r="G95" s="3">
+        <v>42447</v>
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="10" t="s">
@@ -3442,26 +3382,26 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E96" s="50">
+        <v>14</v>
+      </c>
+      <c r="E96" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F96" s="3">
-        <v>42380</v>
+        <v>42450</v>
       </c>
       <c r="G96" s="3">
-        <v>42384</v>
+        <v>42454</v>
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="10" t="s">
@@ -3470,26 +3410,26 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E97" s="50">
+        <v>15</v>
+      </c>
+      <c r="E97" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F97" s="3">
-        <v>42387</v>
+        <v>42464</v>
       </c>
       <c r="G97" s="3">
-        <v>42391</v>
+        <v>42468</v>
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="10" t="s">
@@ -3498,26 +3438,26 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C98" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E98" s="50">
+        <v>16</v>
+      </c>
+      <c r="E98" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F98" s="3">
-        <v>42394</v>
+        <v>42471</v>
       </c>
       <c r="G98" s="3">
-        <v>42398</v>
+        <v>42475</v>
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="10" t="s">
@@ -3526,26 +3466,26 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E99" s="50">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>17</v>
+      </c>
+      <c r="E99" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="F99" s="3">
-        <v>42409</v>
+        <v>42478</v>
       </c>
       <c r="G99" s="3">
-        <v>42412</v>
+        <v>42482</v>
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="10" t="s">
@@ -3554,26 +3494,26 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="50">
+        <v>18</v>
+      </c>
+      <c r="E100" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F100" s="3">
-        <v>42415</v>
+        <v>42506</v>
       </c>
       <c r="G100" s="3">
-        <v>42419</v>
+        <v>42510</v>
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="10" t="s">
@@ -3582,26 +3522,26 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="50">
+        <v>19</v>
+      </c>
+      <c r="E101" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F101" s="3">
-        <v>42422</v>
+        <v>42513</v>
       </c>
       <c r="G101" s="3">
-        <v>42426</v>
+        <v>42517</v>
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="10" t="s">
@@ -3610,26 +3550,26 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E102" s="50">
+        <v>20</v>
+      </c>
+      <c r="E102" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F102" s="3">
-        <v>42436</v>
+        <v>42527</v>
       </c>
       <c r="G102" s="3">
-        <v>42440</v>
+        <v>42531</v>
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="10" t="s">
@@ -3638,26 +3578,26 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="50">
+        <v>21</v>
+      </c>
+      <c r="E103" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F103" s="3">
-        <v>42443</v>
+        <v>42534</v>
       </c>
       <c r="G103" s="3">
-        <v>42447</v>
+        <v>42538</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="10" t="s">
@@ -3666,26 +3606,26 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E104" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F104" s="3">
-        <v>42450</v>
-      </c>
-      <c r="G104" s="3">
-        <v>42454</v>
+        <v>22</v>
+      </c>
+      <c r="E104" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F104" s="29">
+        <v>42541</v>
+      </c>
+      <c r="G104" s="30">
+        <v>42545</v>
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="10" t="s">
@@ -3694,110 +3634,110 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C105" s="28" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F105" s="3">
-        <v>42464</v>
-      </c>
-      <c r="G105" s="3">
-        <v>42468</v>
+        <v>23</v>
+      </c>
+      <c r="E105" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F105" s="29">
+        <v>42555</v>
+      </c>
+      <c r="G105" s="30">
+        <v>42559</v>
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E106" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F106" s="3">
-        <v>42471</v>
-      </c>
-      <c r="G106" s="3">
-        <v>42475</v>
-      </c>
-      <c r="H106" s="7"/>
-      <c r="I106" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E107" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F107" s="3">
-        <v>42478</v>
-      </c>
-      <c r="G107" s="3">
-        <v>42482</v>
-      </c>
-      <c r="H107" s="7"/>
-      <c r="I107" s="10" t="s">
+    <row r="106" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" s="48">
+        <f>(G106-F106)</f>
+        <v>2</v>
+      </c>
+      <c r="F106" s="41">
+        <v>42736</v>
+      </c>
+      <c r="G106" s="42">
+        <v>42738</v>
+      </c>
+      <c r="H106" s="44"/>
+      <c r="I106" s="46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" s="48">
+        <f>(G107-F107)</f>
+        <v>5</v>
+      </c>
+      <c r="F107" s="41">
+        <v>42364</v>
+      </c>
+      <c r="G107" s="42">
+        <v>42369</v>
+      </c>
+      <c r="H107" s="44"/>
+      <c r="I107" s="46" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C108" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E108" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F108" s="3">
-        <v>42485</v>
-      </c>
-      <c r="G108" s="3">
-        <v>42489</v>
+        <v>39</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F108" s="29">
+        <v>42373</v>
+      </c>
+      <c r="G108" s="30">
+        <v>42377</v>
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="10" t="s">
@@ -3806,26 +3746,26 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B109" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C109" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E109" s="50">
+      <c r="E109" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F109" s="3">
-        <v>42499</v>
+        <v>42380</v>
       </c>
       <c r="G109" s="3">
-        <v>42503</v>
+        <v>42384</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="10" t="s">
@@ -3834,26 +3774,26 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D110" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B110" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C110" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E110" s="50">
+      <c r="E110" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F110" s="3">
-        <v>42506</v>
+        <v>42387</v>
       </c>
       <c r="G110" s="3">
-        <v>42510</v>
+        <v>42391</v>
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="10" t="s">
@@ -3862,26 +3802,26 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B111" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C111" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" s="50">
+      <c r="E111" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F111" s="3">
-        <v>42513</v>
+        <v>42394</v>
       </c>
       <c r="G111" s="3">
-        <v>42517</v>
+        <v>42398</v>
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="10" t="s">
@@ -3890,26 +3830,26 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C112" s="28" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E112" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="E112" s="48">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="F112" s="3">
-        <v>42527</v>
+        <v>42409</v>
       </c>
       <c r="G112" s="3">
-        <v>42531</v>
+        <v>42412</v>
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="10" t="s">
@@ -3918,26 +3858,26 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C113" s="28" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E113" s="50">
+        <v>51</v>
+      </c>
+      <c r="E113" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F113" s="3">
-        <v>42534</v>
+        <v>42415</v>
       </c>
       <c r="G113" s="3">
-        <v>42538</v>
+        <v>42419</v>
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="10" t="s">
@@ -3946,26 +3886,26 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C114" s="28" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F114" s="30">
-        <v>42541</v>
-      </c>
-      <c r="G114" s="31">
-        <v>42545</v>
+        <v>51</v>
+      </c>
+      <c r="E114" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F114" s="3">
+        <v>42422</v>
+      </c>
+      <c r="G114" s="3">
+        <v>42426</v>
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="10" t="s">
@@ -3974,110 +3914,110 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C115" s="28" t="s">
-        <v>55</v>
+        <v>39</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E115" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F115" s="30">
-        <v>42555</v>
-      </c>
-      <c r="G115" s="31">
-        <v>42559</v>
+        <v>51</v>
+      </c>
+      <c r="E115" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F115" s="3">
+        <v>42436</v>
+      </c>
+      <c r="G115" s="3">
+        <v>42440</v>
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B116" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C116" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D116" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E116" s="50">
-        <f>(G116-F116)</f>
-        <v>2</v>
-      </c>
-      <c r="F116" s="43">
-        <v>42736</v>
-      </c>
-      <c r="G116" s="44">
-        <v>42738</v>
-      </c>
-      <c r="H116" s="46"/>
-      <c r="I116" s="48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B117" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D117" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E117" s="50">
-        <f>(G117-F117)</f>
-        <v>5</v>
-      </c>
-      <c r="F117" s="43">
-        <v>42364</v>
-      </c>
-      <c r="G117" s="44">
-        <v>42369</v>
-      </c>
-      <c r="H117" s="46"/>
-      <c r="I117" s="48" t="s">
+      <c r="C116" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E116" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F116" s="3">
+        <v>42443</v>
+      </c>
+      <c r="G116" s="3">
+        <v>42447</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E117" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F117" s="3">
+        <v>42450</v>
+      </c>
+      <c r="G117" s="3">
+        <v>42454</v>
+      </c>
+      <c r="H117" s="7"/>
+      <c r="I117" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C118" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D118" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E118" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F118" s="30">
-        <v>42373</v>
-      </c>
-      <c r="G118" s="31">
-        <v>42377</v>
+      <c r="C118" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D118" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" s="48">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F118" s="3">
+        <v>42464</v>
+      </c>
+      <c r="G118" s="3">
+        <v>42468</v>
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="10" t="s">
@@ -4086,26 +4026,26 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="28" t="s">
-        <v>55</v>
+      <c r="C119" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E119" s="50">
+        <v>16</v>
+      </c>
+      <c r="E119" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F119" s="3">
-        <v>42380</v>
+        <v>42471</v>
       </c>
       <c r="G119" s="3">
-        <v>42384</v>
+        <v>42475</v>
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="10" t="s">
@@ -4114,26 +4054,26 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" s="28" t="s">
-        <v>55</v>
+      <c r="C120" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E120" s="50">
+        <v>17</v>
+      </c>
+      <c r="E120" s="48">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="F120" s="3">
-        <v>42387</v>
+        <v>42478</v>
       </c>
       <c r="G120" s="3">
-        <v>42391</v>
+        <v>42482</v>
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="10" t="s">
@@ -4142,26 +4082,26 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="28" t="s">
-        <v>55</v>
+      <c r="C121" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E121" s="50">
-        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="E121" s="48">
+        <f t="shared" ref="E121:E126" si="2">(G121-F121)+1</f>
         <v>5</v>
       </c>
       <c r="F121" s="3">
-        <v>42394</v>
+        <v>42506</v>
       </c>
       <c r="G121" s="3">
-        <v>42398</v>
+        <v>42510</v>
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="10" t="s">
@@ -4170,26 +4110,26 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C122" s="28" t="s">
-        <v>55</v>
+      <c r="C122" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E122" s="50">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <v>19</v>
+      </c>
+      <c r="E122" s="48">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="F122" s="3">
-        <v>42409</v>
+        <v>42513</v>
       </c>
       <c r="G122" s="3">
-        <v>42412</v>
+        <v>42517</v>
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="10" t="s">
@@ -4198,26 +4138,26 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C123" s="28" t="s">
-        <v>55</v>
+      <c r="C123" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E123" s="50">
-        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="E123" s="48">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F123" s="3">
-        <v>42415</v>
+        <v>42527</v>
       </c>
       <c r="G123" s="3">
-        <v>42419</v>
+        <v>42531</v>
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="10" t="s">
@@ -4226,26 +4166,26 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C124" s="28" t="s">
-        <v>55</v>
+      <c r="C124" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" s="50">
-        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="E124" s="48">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="F124" s="3">
-        <v>42422</v>
+        <v>42534</v>
       </c>
       <c r="G124" s="3">
-        <v>42426</v>
+        <v>42538</v>
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="10" t="s">
@@ -4254,26 +4194,26 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C125" s="28" t="s">
-        <v>55</v>
+      <c r="C125" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E125" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F125" s="3">
-        <v>42436</v>
-      </c>
-      <c r="G125" s="3">
-        <v>42440</v>
+        <v>22</v>
+      </c>
+      <c r="E125" s="48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F125" s="29">
+        <v>42541</v>
+      </c>
+      <c r="G125" s="30">
+        <v>42545</v>
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="10" t="s">
@@ -4282,393 +4222,57 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C126" s="28" t="s">
-        <v>55</v>
+      <c r="C126" s="27" t="s">
+        <v>45</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F126" s="3">
-        <v>42443</v>
-      </c>
-      <c r="G126" s="3">
-        <v>42447</v>
+        <v>23</v>
+      </c>
+      <c r="E126" s="48">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="F126" s="29">
+        <v>42555</v>
+      </c>
+      <c r="G126" s="30">
+        <v>42559</v>
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
+    <row r="127" spans="1:9" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C127" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D127" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E127" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F127" s="3">
-        <v>42450</v>
-      </c>
-      <c r="G127" s="3">
-        <v>42454</v>
-      </c>
-      <c r="H127" s="7"/>
-      <c r="I127" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B128" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D128" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F128" s="3">
-        <v>42464</v>
-      </c>
-      <c r="G128" s="3">
-        <v>42468</v>
-      </c>
-      <c r="H128" s="7"/>
-      <c r="I128" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E129" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F129" s="3">
-        <v>42471</v>
-      </c>
-      <c r="G129" s="3">
-        <v>42475</v>
-      </c>
-      <c r="H129" s="7"/>
-      <c r="I129" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C130" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D130" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E130" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F130" s="3">
-        <v>42478</v>
-      </c>
-      <c r="G130" s="3">
-        <v>42482</v>
-      </c>
-      <c r="H130" s="7"/>
-      <c r="I130" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C131" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D131" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E131" s="50">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F131" s="3">
-        <v>42485</v>
-      </c>
-      <c r="G131" s="3">
-        <v>42489</v>
-      </c>
-      <c r="H131" s="7"/>
-      <c r="I131" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B132" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C132" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D132" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E132" s="50">
-        <f t="shared" ref="E132:E139" si="2">(G132-F132)+1</f>
-        <v>5</v>
-      </c>
-      <c r="F132" s="3">
-        <v>42499</v>
-      </c>
-      <c r="G132" s="3">
-        <v>42503</v>
-      </c>
-      <c r="H132" s="7"/>
-      <c r="I132" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C133" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D133" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="E133" s="50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F133" s="3">
-        <v>42506</v>
-      </c>
-      <c r="G133" s="3">
-        <v>42510</v>
-      </c>
-      <c r="H133" s="7"/>
-      <c r="I133" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C134" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E134" s="50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F134" s="3">
-        <v>42513</v>
-      </c>
-      <c r="G134" s="3">
-        <v>42517</v>
-      </c>
-      <c r="H134" s="7"/>
-      <c r="I134" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C135" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D135" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E135" s="50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F135" s="3">
-        <v>42527</v>
-      </c>
-      <c r="G135" s="3">
-        <v>42531</v>
-      </c>
-      <c r="H135" s="7"/>
-      <c r="I135" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B136" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C136" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E136" s="50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F136" s="3">
-        <v>42534</v>
-      </c>
-      <c r="G136" s="3">
-        <v>42538</v>
-      </c>
-      <c r="H136" s="7"/>
-      <c r="I136" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C137" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D137" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F137" s="30">
-        <v>42541</v>
-      </c>
-      <c r="G137" s="31">
-        <v>42545</v>
-      </c>
-      <c r="H137" s="7"/>
-      <c r="I137" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B138" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C138" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="D138" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" s="50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="F138" s="30">
-        <v>42555</v>
-      </c>
-      <c r="G138" s="31">
-        <v>42559</v>
-      </c>
-      <c r="H138" s="7"/>
-      <c r="I138" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="B139" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C139" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="D139" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E139" s="42">
-        <f>(G139-F139)</f>
+      <c r="C127" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E127" s="40">
+        <f>(G127-F127)</f>
         <v>2</v>
       </c>
-      <c r="F139" s="43">
+      <c r="F127" s="41">
         <v>42736</v>
       </c>
-      <c r="G139" s="44">
+      <c r="G127" s="42">
         <v>42738</v>
       </c>
-      <c r="H139" s="46"/>
-      <c r="I139" s="48" t="s">
+      <c r="H127" s="44"/>
+      <c r="I127" s="46" t="s">
         <v>4</v>
       </c>
     </row>
@@ -4680,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4703,213 +4307,154 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>34</v>
+      <c r="A3" s="15" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="C6" s="18"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="17"/>
+        <v>37</v>
+      </c>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
+      <c r="A8" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="18"/>
+        <v>27</v>
+      </c>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="18"/>
+        <v>30</v>
+      </c>
+      <c r="C9" s="20"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="18"/>
+        <v>32</v>
+      </c>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="18"/>
+        <v>38</v>
+      </c>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="19"/>
+      <c r="A13" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="20"/>
+        <v>28</v>
+      </c>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="20"/>
+        <v>31</v>
+      </c>
+      <c r="C15" s="25"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="21"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="C16" s="26"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C17" s="21"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="22"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="23"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="24"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="25"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="26"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="27"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="29"/>
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
